--- a/08-agosto/6-portal-cliente/NOVEDADES AGOSTO 2025.xlsx
+++ b/08-agosto/6-portal-cliente/NOVEDADES AGOSTO 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\08-agosto\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7783317A-3A96-4B4D-9D29-76507185F040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDF7B4A-991A-4F87-8336-391D1D2EA019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="1110" windowWidth="13890" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-300" yWindow="780" windowWidth="13890" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
